--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B1EAE5-18D1-4D25-A3CD-D39B7CBE7596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A1A2C-7769-4DAA-96F6-64C3D8D37F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="217">
   <si>
     <t>PJ名</t>
   </si>
@@ -1342,16 +1342,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ユーザー名またはパスワードの誤り</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アヤマ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>アカウントの有効期限切れ</t>
     <rPh sb="6" eb="8">
       <t>ユウコウ</t>
@@ -1563,16 +1553,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面レイアウトの貼り替え、Spring Securityを使用するよう変更</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1590,6 +1570,41 @@
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>アカウントパスワード</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ドメイン情報をドメイン定義書に合わせて修正</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ名またはパスワードの誤り</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アヤマ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -4114,7 +4129,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="18"/>
       <c r="J23" s="14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -4134,7 +4149,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44693</v>
+        <v>44907</v>
       </c>
       <c r="J25" s="158"/>
       <c r="K25" s="158"/>
@@ -4863,7 +4878,7 @@
       <c r="AF2" s="170"/>
       <c r="AG2" s="165">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44693</v>
+        <v>44907</v>
       </c>
       <c r="AH2" s="166"/>
       <c r="AI2" s="167"/>
@@ -5154,7 +5169,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="171" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="173"/>
       <c r="D9" s="198">
@@ -5163,12 +5178,12 @@
       <c r="E9" s="199"/>
       <c r="F9" s="200"/>
       <c r="G9" s="171" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" s="172"/>
       <c r="I9" s="173"/>
       <c r="J9" s="183" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K9" s="184"/>
       <c r="L9" s="184"/>
@@ -5177,7 +5192,7 @@
       <c r="O9" s="184"/>
       <c r="P9" s="185"/>
       <c r="Q9" s="180" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R9" s="181"/>
       <c r="S9" s="181"/>
@@ -5194,30 +5209,42 @@
       <c r="AD9" s="181"/>
       <c r="AE9" s="182"/>
       <c r="AF9" s="183" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG9" s="184"/>
       <c r="AH9" s="184"/>
       <c r="AI9" s="185"/>
     </row>
     <row r="10" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="40">
+        <v>3</v>
+      </c>
+      <c r="B10" s="171" t="s">
+        <v>213</v>
+      </c>
       <c r="C10" s="173"/>
-      <c r="D10" s="198"/>
+      <c r="D10" s="198">
+        <v>44907</v>
+      </c>
       <c r="E10" s="199"/>
       <c r="F10" s="200"/>
-      <c r="G10" s="171"/>
+      <c r="G10" s="171" t="s">
+        <v>208</v>
+      </c>
       <c r="H10" s="172"/>
       <c r="I10" s="173"/>
-      <c r="J10" s="183"/>
+      <c r="J10" s="183" t="s">
+        <v>209</v>
+      </c>
       <c r="K10" s="184"/>
       <c r="L10" s="184"/>
       <c r="M10" s="184"/>
       <c r="N10" s="184"/>
       <c r="O10" s="184"/>
       <c r="P10" s="185"/>
-      <c r="Q10" s="180"/>
+      <c r="Q10" s="180" t="s">
+        <v>214</v>
+      </c>
       <c r="R10" s="181"/>
       <c r="S10" s="181"/>
       <c r="T10" s="181"/>
@@ -5232,7 +5259,9 @@
       <c r="AC10" s="181"/>
       <c r="AD10" s="181"/>
       <c r="AE10" s="182"/>
-      <c r="AF10" s="183"/>
+      <c r="AF10" s="183" t="s">
+        <v>210</v>
+      </c>
       <c r="AG10" s="184"/>
       <c r="AH10" s="184"/>
       <c r="AI10" s="185"/>
@@ -6562,7 +6591,7 @@
       <c r="AF2" s="161"/>
       <c r="AG2" s="221">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44693</v>
+        <v>44907</v>
       </c>
       <c r="AH2" s="222"/>
       <c r="AI2" s="223"/>
@@ -7453,7 +7482,7 @@
       <c r="AF2" s="161"/>
       <c r="AG2" s="221">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44693</v>
+        <v>44907</v>
       </c>
       <c r="AH2" s="222"/>
       <c r="AI2" s="223"/>
@@ -7966,7 +7995,7 @@
       <c r="AF2" s="161"/>
       <c r="AG2" s="308">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44693</v>
+        <v>44907</v>
       </c>
       <c r="AH2" s="309"/>
       <c r="AI2" s="310"/>
@@ -8577,7 +8606,7 @@
         <v>85</v>
       </c>
       <c r="AD53" s="180" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="AE53" s="306"/>
       <c r="AF53" s="306"/>
@@ -9399,7 +9428,7 @@
     </row>
     <row r="88" spans="4:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G88" s="113"/>
       <c r="H88" s="113"/>
@@ -10539,7 +10568,7 @@
     </row>
     <row r="123" spans="6:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G123" s="115"/>
       <c r="H123" s="115"/>
@@ -11667,7 +11696,7 @@
       <c r="E150" s="43"/>
       <c r="F150" s="79"/>
       <c r="H150" s="282" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I150" s="282"/>
       <c r="J150" s="282"/>
@@ -11677,7 +11706,7 @@
       <c r="N150" s="282"/>
       <c r="O150" s="282"/>
       <c r="P150" s="282" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q150" s="282"/>
       <c r="R150" s="282"/>
@@ -11725,7 +11754,7 @@
       <c r="E151" s="43"/>
       <c r="F151" s="79"/>
       <c r="H151" s="275" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="I151" s="275"/>
       <c r="J151" s="275"/>
@@ -11735,7 +11764,7 @@
       <c r="N151" s="275"/>
       <c r="O151" s="275"/>
       <c r="P151" s="275" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q151" s="275"/>
       <c r="R151" s="275"/>
@@ -11783,7 +11812,7 @@
       <c r="E152" s="43"/>
       <c r="F152" s="79"/>
       <c r="H152" s="275" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I152" s="275"/>
       <c r="J152" s="275"/>
@@ -11793,7 +11822,7 @@
       <c r="N152" s="275"/>
       <c r="O152" s="275"/>
       <c r="P152" s="275" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q152" s="275"/>
       <c r="R152" s="275"/>
@@ -11841,7 +11870,7 @@
       <c r="E153" s="43"/>
       <c r="F153" s="79"/>
       <c r="H153" s="275" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I153" s="275"/>
       <c r="J153" s="275"/>
@@ -11851,7 +11880,7 @@
       <c r="N153" s="275"/>
       <c r="O153" s="275"/>
       <c r="P153" s="275" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q153" s="275"/>
       <c r="R153" s="275"/>
@@ -11899,7 +11928,7 @@
       <c r="E154" s="43"/>
       <c r="F154" s="79"/>
       <c r="H154" s="275" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I154" s="275"/>
       <c r="J154" s="275"/>
@@ -11909,7 +11938,7 @@
       <c r="N154" s="275"/>
       <c r="O154" s="275"/>
       <c r="P154" s="275" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q154" s="275"/>
       <c r="R154" s="275"/>
@@ -11984,7 +12013,7 @@
     <row r="156" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E156" s="43"/>
       <c r="F156" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AJ156" s="108"/>
       <c r="AK156" s="108"/>
@@ -12040,7 +12069,7 @@
     </row>
     <row r="158" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E158" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F158" s="43"/>
       <c r="AJ158" s="108"/>
@@ -12098,7 +12127,7 @@
     <row r="160" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E160" s="43"/>
       <c r="F160" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ160" s="108"/>
       <c r="AK160" s="108"/>
@@ -12591,7 +12620,7 @@
     </row>
     <row r="172" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E172" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F172" s="43"/>
       <c r="AJ172" s="108"/>
@@ -12649,7 +12678,7 @@
     <row r="174" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E174" s="43"/>
       <c r="F174" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ174" s="108"/>
       <c r="AK174" s="108"/>
